--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2017 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2017 Full Detailed Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7B688D-668A-42B4-9403-3350A1C98152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DDE1BC-7385-49E4-9348-AC7051BF90E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,15 +113,9 @@
     <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=OWASP-2017</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A1-2017</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A1-2017,COUNT=-1</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A2-2017</t>
-  </si>
-  <si>
     <t>CAST findings for A2- Broken Authentication</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>CAST findings details for A2- Broken Authentication</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A3-2017</t>
-  </si>
-  <si>
     <t>CAST findings for A3-Sensitive Data Exposure</t>
   </si>
   <si>
@@ -143,9 +134,6 @@
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A3-2017,COUNT=-1</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A4-2017</t>
-  </si>
-  <si>
     <t>CAST findings for A4- XML External Entities (XXE)</t>
   </si>
   <si>
@@ -155,9 +143,6 @@
     <t>CAST findings details for A4-XML External Entities (XXE)</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A5-2017</t>
-  </si>
-  <si>
     <t>CAST findings for A5 – Broken Access Control</t>
   </si>
   <si>
@@ -167,9 +152,6 @@
     <t>CAST findings details for A5 – Broken Access Control</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A6-2017</t>
-  </si>
-  <si>
     <t>CAST findings for A6 –Security Misconfiguration</t>
   </si>
   <si>
@@ -179,9 +161,6 @@
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A6-2017,COUNT=-1</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A7-2017</t>
-  </si>
-  <si>
     <t>CAST findings for A7 – Cross-Site Scripting (XSS)</t>
   </si>
   <si>
@@ -191,9 +170,6 @@
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A7-2017,COUNT=-1</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A8-2017</t>
-  </si>
-  <si>
     <t>CAST findings for A8 – Insecure Deserialization</t>
   </si>
   <si>
@@ -203,9 +179,6 @@
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A8-2017,COUNT=-1</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A9-2017</t>
-  </si>
-  <si>
     <t>CAST findings for A9 – Using Components with Known Vulnerabilities</t>
   </si>
   <si>
@@ -215,9 +188,6 @@
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A9-2017,COUNT=-1</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A10-2017</t>
-  </si>
-  <si>
     <t>CAST findings for A10 – Insufficient Logging&amp;Monitoring</t>
   </si>
   <si>
@@ -225,6 +195,36 @@
   </si>
   <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A10-2017,COUNT=-1</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A1-2017</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A2-2017</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A3-2017</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A4-2017</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A5-2017</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A6-2017</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A7-2017</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A8-2017</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A9-2017</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A10-2017</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,12 +1011,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1041,12 +1041,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6184CFD3-505D-44C0-8258-50A02CF4F83B}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1072,12 +1074,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1102,12 +1104,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1120,7 +1122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40429C24-E986-40B1-9C54-93D6527149C0}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1133,12 +1137,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1163,12 +1167,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398772F4-1EC0-446D-8794-6788C8DEC765}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1194,12 +1200,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1224,12 +1230,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1257,12 +1263,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1287,12 +1293,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1312,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1325,7 +1331,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1338,7 +1344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6BD317-0B61-41E3-8731-C4F691D2AAE1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1351,12 +1359,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1381,12 +1389,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1416,7 +1424,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1438,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1444,12 +1452,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1474,12 +1482,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1507,12 +1515,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1537,12 +1545,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB41B1C-9240-4348-9FC9-45CED54B99B9}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1568,12 +1578,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1598,12 +1608,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2017 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2017 Full Detailed Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DDE1BC-7385-49E4-9348-AC7051BF90E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B19DFEE-2422-44EB-BCB9-28764143ABC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="76">
   <si>
     <t>Application Name:</t>
   </si>
@@ -89,12 +89,6 @@
     <t>RepGen:TEXT;METRIC_TECHNICAL_DEBT</t>
   </si>
   <si>
-    <t>RepGen:TABLE;TECHNICAL_SIZING</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;TECHNO_LOC</t>
-  </si>
-  <si>
     <t>Application characteristics</t>
   </si>
   <si>
@@ -110,18 +104,9 @@
     <t>Findings summary for CAST under OWASP-2017</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=OWASP-2017</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A1-2017,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings for A2- Broken Authentication</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A2-2017,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings details for A2- Broken Authentication</t>
   </si>
   <si>
@@ -131,24 +116,15 @@
     <t>CAST findings details for A3-Sensitive Data Exposure</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A3-2017,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings for A4- XML External Entities (XXE)</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A4-2017,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings details for A4-XML External Entities (XXE)</t>
   </si>
   <si>
     <t>CAST findings for A5 – Broken Access Control</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A5-2017,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings details for A5 – Broken Access Control</t>
   </si>
   <si>
@@ -158,73 +134,157 @@
     <t>CAST findings details for A6 – Security Misconfiguration</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A6-2017,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings for A7 – Cross-Site Scripting (XSS)</t>
   </si>
   <si>
     <t>CAST findings details for A7 – Cross-Site Scripting (XSS)</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A7-2017,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings for A8 – Insecure Deserialization</t>
   </si>
   <si>
     <t>CAST findings details for A8 – Insecure Deserialization</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A8-2017,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings for A9 – Using Components with Known Vulnerabilities</t>
   </si>
   <si>
     <t>CAST findings details for A9 – Using Components with Known Vulnerabilities</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A9-2017,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings for A10 – Insufficient Logging&amp;Monitoring</t>
   </si>
   <si>
     <t>CAST findings details for A10 – Insufficient Logging&amp;Monitoring</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A10-2017,COUNT=-1</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A1-2017</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A2-2017</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A3-2017</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A4-2017</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A5-2017</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A6-2017</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A7-2017</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A8-2017</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A9-2017</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A10-2017</t>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Lines of Code</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;TECHNO_LOC;HEADER=NO</t>
+  </si>
+  <si>
+    <t>Characteristic</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;TECHNICAL_SIZING;HEADER=NO</t>
+  </si>
+  <si>
+    <t>Quality Standard</t>
+  </si>
+  <si>
+    <t>Total Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Added Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Removed Vulnerabilities</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=OWASP-2017,HEADER=NO</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Rationale</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Remediation</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A1-2017,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>Rule Name</t>
+  </si>
+  <si>
+    <t>Object Name</t>
+  </si>
+  <si>
+    <t>Object Type</t>
+  </si>
+  <si>
+    <t>Violation Status</t>
+  </si>
+  <si>
+    <t>Associated Value</t>
+  </si>
+  <si>
+    <t>File Path</t>
+  </si>
+  <si>
+    <t>Start Line</t>
+  </si>
+  <si>
+    <t>End Line</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A1-2017,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A2-2017,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A2-2017,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A3-2017,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A3-2017,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A4-2017,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A4-2017,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A5-2017,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A5-2017,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A6-2017,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A6-2017,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A7-2017,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A7-2017,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A8-2017,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A8-2017,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A9-2017,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A9-2017,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A10-2017,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A10-2017,COUNT=-1,HEADER=NO</t>
   </si>
 </sst>
 </file>
@@ -431,7 +491,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -487,20 +547,24 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -545,7 +609,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>432089</xdr:colOff>
+      <xdr:colOff>30307</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>245918</xdr:rowOff>
     </xdr:to>
@@ -878,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O13"/>
+  <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,7 +954,7 @@
     <col min="2" max="2" width="75.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -907,12 +971,12 @@
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -921,13 +985,13 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="9" t="s">
         <v>4</v>
@@ -937,13 +1001,13 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
         <v>2</v>
@@ -957,34 +1021,67 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D9" s="24"/>
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -994,30 +1091,59 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7E084B-1D41-49A1-AAE8-65E5FD99EAE8}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1027,7 +1153,691 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60019302-308A-442F-B9EA-3F649E847332}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6184CFD3-505D-44C0-8258-50A02CF4F83B}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="50.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68947EEB-3915-46CA-938B-9EF94DC11C5F}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40429C24-E986-40B1-9C54-93D6527149C0}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="51.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB8EA9-CBE4-4B5D-A35C-7E148B322568}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398772F4-1EC0-446D-8794-6788C8DEC765}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="49.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E33A766-BEF1-4CAD-9B15-BE530492E644}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBA7DBA-4263-4117-BE33-EEC6555217AC}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="47.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B266AE1-FA0B-445E-816A-BF2547229BFC}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" customWidth="1"/>
+    <col min="6" max="6" width="52.109375" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6BD317-0B61-41E3-8731-C4F691D2AAE1}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="77.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199839F1-7669-46C3-B6D9-CA145D3BFC5A}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1035,18 +1845,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1055,31 +1897,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6184CFD3-505D-44C0-8258-50A02CF4F83B}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00038B0F-4F74-4ACF-8A7F-FE15A067CF76}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>51</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1088,29 +1959,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68947EEB-3915-46CA-938B-9EF94DC11C5F}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C28B7BF-B505-460E-B5F5-CEF317C8DA21}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1118,31 +2021,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40429C24-E986-40B1-9C54-93D6527149C0}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D8D923-188E-4CB6-BF7E-B970F3C6E30D}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>52</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1151,29 +2083,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB8EA9-CBE4-4B5D-A35C-7E148B322568}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79906E84-4B34-4770-9305-4F2F91D7EFE1}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="54.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1181,31 +2145,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398772F4-1EC0-446D-8794-6788C8DEC765}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC577CBB-D408-44A0-A911-378AA65DFFF8}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>53</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1214,29 +2207,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E33A766-BEF1-4CAD-9B15-BE530492E644}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB41B1C-9240-4348-9FC9-45CED54B99B9}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1244,376 +2269,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBA7DBA-4263-4117-BE33-EEC6555217AC}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEDA8E1-603E-4AFF-9626-7A5FC25447BA}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B266AE1-FA0B-445E-816A-BF2547229BFC}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6BD317-0B61-41E3-8731-C4F691D2AAE1}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="G2" s="20" t="s">
         <v>55</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199839F1-7669-46C3-B6D9-CA145D3BFC5A}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00038B0F-4F74-4ACF-8A7F-FE15A067CF76}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C28B7BF-B505-460E-B5F5-CEF317C8DA21}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D8D923-188E-4CB6-BF7E-B970F3C6E30D}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79906E84-4B34-4770-9305-4F2F91D7EFE1}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC577CBB-D408-44A0-A911-378AA65DFFF8}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB41B1C-9240-4348-9FC9-45CED54B99B9}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEDA8E1-603E-4AFF-9626-7A5FC25447BA}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
+      <c r="H2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2017 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2017 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B19DFEE-2422-44EB-BCB9-28764143ABC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BDAA34-EC96-4F45-90AE-D69E4A1AA4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>Snapshot date:</t>
   </si>
   <si>
-    <t>Technical Debt:</t>
-  </si>
-  <si>
     <t>Generated on:</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>RepGen:TEXT;LAST_SNAPSHOT_DATE</t>
   </si>
   <si>
-    <t>RepGen:TEXT;METRIC_TECHNICAL_DEBT</t>
-  </si>
-  <si>
     <t>Application characteristics</t>
   </si>
   <si>
@@ -285,6 +279,12 @@
   </si>
   <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A10-2017,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>ISO Technical Debt:</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;OMG_TECHNICAL_DEBT</t>
   </si>
 </sst>
 </file>
@@ -553,9 +553,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -565,6 +562,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -608,8 +608,8 @@
       <xdr:rowOff>55418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>30307</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1104034</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>245918</xdr:rowOff>
     </xdr:to>
@@ -945,38 +945,38 @@
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -984,100 +984,100 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="D8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="18" t="s">
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="34.200000000000003" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25" t="s">
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1097,53 +1097,53 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="54.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1159,52 +1159,52 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1221,53 +1221,53 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1283,52 +1283,52 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1345,53 +1345,53 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="51.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1407,52 +1407,52 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1469,53 +1469,53 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="49.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1531,52 +1531,52 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1593,53 +1593,53 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="47.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1655,52 +1655,52 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1717,55 +1717,55 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" customWidth="1"/>
-    <col min="6" max="6" width="52.109375" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" customWidth="1"/>
+    <col min="6" max="6" width="52.140625" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1781,53 +1781,53 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="53.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1843,52 +1843,52 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1905,52 +1905,52 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>55</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1967,53 +1967,53 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2029,52 +2029,52 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2091,53 +2091,53 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="54.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2153,52 +2153,52 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2215,53 +2215,53 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2277,52 +2277,52 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2017 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2017 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BDAA34-EC96-4F45-90AE-D69E4A1AA4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC85CDAC-DE0A-4692-904C-6DD1D0F206FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <t>Removed Vulnerabilities</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=OWASP-2017,HEADER=NO</t>
-  </si>
-  <si>
     <t>Rules</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>Remediation</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A1-2017,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>Rule Name</t>
   </si>
   <si>
@@ -227,57 +221,30 @@
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A1-2017,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A2-2017,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A2-2017,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A3-2017,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A3-2017,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A4-2017,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A4-2017,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A5-2017,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A5-2017,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A6-2017,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A6-2017,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A7-2017,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A7-2017,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A8-2017,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A8-2017,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A9-2017,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A9-2017,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A10-2017,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A10-2017,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
@@ -285,6 +252,39 @@
   </si>
   <si>
     <t>RepGen:TEXT;OMG_TECHNICAL_DEBT</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=OWASP-2017,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A1-2017,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A2-2017,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A3-2017,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A4-2017,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A5-2017,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A6-2017,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A7-2017,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A8-2017,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A9-2017,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A10-2017,DESC=true,HEADER=NO,EVOLUTION=true</t>
   </si>
 </sst>
 </file>
@@ -945,26 +945,26 @@
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="36.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
@@ -984,7 +984,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
@@ -1010,16 +1010,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1030,13 +1030,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C8" s="18" t="s">
         <v>34</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>36</v>
       </c>
@@ -1052,12 +1052,12 @@
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>37</v>
       </c>
@@ -1071,9 +1071,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -1094,26 +1094,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="54.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>38</v>
@@ -1125,18 +1125,18 @@
         <v>40</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1159,52 +1159,52 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1218,26 +1218,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="50.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>38</v>
@@ -1249,18 +1249,18 @@
         <v>40</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1283,52 +1283,52 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1342,26 +1342,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="51.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="51.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>38</v>
@@ -1373,18 +1373,18 @@
         <v>40</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1407,52 +1407,52 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1466,26 +1466,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="49.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="49.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>38</v>
@@ -1497,18 +1497,18 @@
         <v>40</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1531,52 +1531,52 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1590,26 +1590,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>38</v>
@@ -1621,18 +1621,18 @@
         <v>40</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1655,52 +1655,52 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1714,28 +1714,28 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" customWidth="1"/>
-    <col min="6" max="6" width="52.140625" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" customWidth="1"/>
+    <col min="6" max="6" width="52.109375" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>38</v>
@@ -1747,18 +1747,18 @@
         <v>40</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1778,26 +1778,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A7" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="53.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>38</v>
@@ -1809,18 +1809,18 @@
         <v>40</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1843,52 +1843,52 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1905,52 +1905,52 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1964,26 +1964,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>38</v>
@@ -1995,18 +1995,18 @@
         <v>40</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -2029,52 +2029,52 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2088,26 +2088,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A38" sqref="A37:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="54.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>38</v>
@@ -2119,18 +2119,18 @@
         <v>40</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -2153,52 +2153,52 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2212,26 +2212,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>38</v>
@@ -2243,18 +2243,18 @@
         <v>40</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -2277,52 +2277,52 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2017 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2017 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJG\cast-repos\report-gen\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC85CDAC-DE0A-4692-904C-6DD1D0F206FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D5906B-6DF9-4F0B-8330-3A251C0F9717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -37,11 +37,11 @@
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!#REF!</definedName>
-    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$3</definedName>
+    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$4</definedName>
     <definedName name="EmpVersion" comment="TEXT;EMP_VERSION" localSheetId="0">Summary!$E$1</definedName>
-    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$3:$D$3</definedName>
-    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$4</definedName>
-    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$5</definedName>
+    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$5:$D$5</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">Summary!$F$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -491,7 +491,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -515,16 +515,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,10 +534,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -565,6 +565,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -602,52 +614,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1229591</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:rowOff>17319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1104034</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>245918</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1020001</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C79ABD0-A32C-4095-B7FD-6E45B50DB338}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3870613" y="254577"/>
-          <a:ext cx="1601066" cy="190500"/>
+          <a:off x="10295659" y="216478"/>
+          <a:ext cx="1106592" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -942,29 +952,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O14"/>
+  <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
@@ -974,7 +984,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
@@ -984,100 +994,108 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+    <row r="5" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
+      <c r="D10" s="23"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="s">
+    <row r="14" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1097,21 +1115,21 @@
       <selection activeCell="A9" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="54.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1134,7 +1152,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>70</v>
       </c>
@@ -1159,24 +1177,24 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -1202,7 +1220,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1221,21 +1239,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1258,7 +1276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>71</v>
       </c>
@@ -1283,24 +1301,24 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -1326,7 +1344,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1345,21 +1363,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="51.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1382,7 +1400,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>72</v>
       </c>
@@ -1407,24 +1425,24 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -1450,7 +1468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1469,21 +1487,21 @@
       <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="49.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1506,7 +1524,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>73</v>
       </c>
@@ -1531,24 +1549,24 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -1574,7 +1592,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1593,21 +1611,21 @@
       <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="47.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1630,7 +1648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>74</v>
       </c>
@@ -1655,24 +1673,24 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -1698,7 +1716,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1717,23 +1735,23 @@
       <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" customWidth="1"/>
-    <col min="6" max="6" width="52.109375" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" customWidth="1"/>
+    <col min="6" max="6" width="52.140625" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1756,7 +1774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>66</v>
       </c>
@@ -1781,21 +1799,21 @@
       <selection activeCell="A7" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="53.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1818,7 +1836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>75</v>
       </c>
@@ -1843,24 +1861,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -1886,7 +1904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1905,24 +1923,24 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -1948,7 +1966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1967,21 +1985,21 @@
       <selection activeCell="A6" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -2004,7 +2022,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>67</v>
       </c>
@@ -2029,24 +2047,24 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -2072,7 +2090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -2091,21 +2109,21 @@
       <selection activeCell="A38" sqref="A37:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="54.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -2128,7 +2146,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>68</v>
       </c>
@@ -2153,24 +2171,24 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -2196,7 +2214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -2215,21 +2233,21 @@
       <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -2252,7 +2270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>69</v>
       </c>
@@ -2277,24 +2295,24 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -2320,7 +2338,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
